--- a/500all/speech_level/speeches_CHRG-114hhrg20350.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20350.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will please come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome here everyone, and particularly our witnesses supporting International Antitrust Enforcement: China and Beyond, and I now recognize myself for an opening statement.    We convene today's hearing to examine the enforcement of competition laws across the globe but with a focus on how China is enforcing its laws. This focus is a result of troubling reports that China may be using its competition laws or, if you will, its antitrust laws, to advance industrial policy at the expense of America and other foreign companies. We will also examine how the executive branch has responded to China's administration and its competitive laws.    Over the past 30 years, China's economy has experienced remarkable growth, increasing at a rate of nearly 10 percent per year. During that time, China has become an important trade partner to the United States and a significant influence in the American economy. Between 1990 and 2015, total trade with China rose from $20 billion to $598 billion and, just last year, China passed Canada as the United States' largest trading partner.    China is the second largest U.S. agricultural export market, the third largest U.S. merchandise export market, and the fourth largest U.S. service export market. In total, China is estimated to be a $400 billion market to American companies.    While these statistics provide stark numbers, one need only look no further than the labels on phones, toys, cars, clothes, and a wide array of other consumer products to see a familiar marking ``made in China'' to understand the pervasive impact of China's economy in the United States. As China's economy developed, so did its laws and regulations designed to foster future growth. In 2007, China enacted its competition laws called the ``Anti-Monopoly Law,'' or ``AML.''    Since the AML's enactment, there have been troubling reports of China deploying the law in a manner that violates international norms of due process with the result of prioritizing the advancement of China's industry policies over promoting competition. These reports include allegations that China prevented foreign lawyers from representing their clients before competition authorities, threatened foreign executives during the course of competition investigations, targeted foreign companies more frequently than Chinese companies with respect to merger remedies, and conduct investigations pursued the extraction of intellectual property at below market rates, and sought remedies that directly benefited the Chinese industry.    Given the size of the Chinese economy and the importance to American industry, these are serious allegations. Following these reports, the executive branch has responded in a variety of ways. Notably, the Commerce Department has engaged with China through the U.S.-China Joint Commission on Commerce and Trade and the Departments of State and Treasury similarly engaged in the U.S.-China Strategic/Economic Dialogue, which is taking place this week in Beijing.    Past meetings with U.S. officials have resulted in non-binding voluntary commitments by China to improve transparency, increase due process, and enhance the fairness of the AML.    We should ensure that U.S. companies are treated fairly, consistently, and objectively by international jurisdiction. Today's hearing will help inform the Committee regarding international competition law enforcement, particularly China, and whether other countries are influenced by China's use of the AML.    Additionally, the hearing will update us regarding how the executive agencies are coordinating with each other and engaging with China and other countries on the treatment of U.S. companies and citizens abroad. On a personal note, I was an electronics executive during the era in which many, many American companies found themselves moving abroad, often to Taiwan, the new territories, and then into Mainland China. During that era, this was not the law, and yet there was inherently a desire to build a future China. And to this, on a personal note, I want to build a better China, and commerce is the answer, but it's only the answer if in fact they embrace the international norms that allow them to win when they're competitive and choose other vendors when in fact the most competitive vendor comes from somewhere other than China.    I look forward to today's discussion and our excellent panel, and it's my honor to recognize the Ranking Member, Mr. Johnson of Georgia, for his opening remarks.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. I thank the Chairman.    Today's hearing is a welcome discussion of international antitrust enforcement with a specific focus on China's approach to competition policy under its Anti-Monopoly Law. Over the past several decades, one of the most profound developments in antitrust law has been its expansion into the global economy.    In the 1980's, as few as five countries robustly enforce the antitrust laws. Today, more than 100 jurisdictions are members of the International Competition Network, an organization of enforcement agencies. This growing interest in antitrust law reflects a broader trend that reflects Nations moving away from centrally planned economies to open markets.    In recent years, there has also been some divergence from the U.S. approach to antitrust enforcement among Nations with established competition authorities. This change is particularly evident in China's aggressive enforcement of its Anti-Monopoly Law, which includes both procompetition goals such as preventing monopolization, and noncompetition directives such as improving economic efficiencies and development in China.    Some have suggested that these twin goals have at times served to protect domestic commerce rather than promote competition. Examining these differences is important because local enforcement decisions can have global effects, as Federal Trade Commission Chairwoman Edith Ramirez has observed. But diversity and enforcement policy is itself--in itself is not necessarily bad.    Progressives have long suggested that we rethink our antitrust policies to move beyond the excesses of the Chicago school of economic theory, as our former colleague Senator Herb Kohl has referred to it, to incorporate noneconomic values that promote the public interest through enforcement policy.    With this in mind, I commend our enforcement agencies for taking a long view in competition policy that embraces diverse antitrust frameworks and respects local autonomy, while also seeking to establish a fair, independent, and transparent enforcement process internationally. While most work remains to be done to broaden international consensus and ensure that enforcement policy is not just a tool for promoting domestic or industrial policy goals, I'm confident that we can continue to work productively to bridge our differences and complement divergent enforcement regimes.    As we seek consensus, it is imperative that we avoid an exceptional view of our own enforcement practices if we are to build upon ongoing dialogues with other sovereign Nations to establish economic and political comity. Indeed, progressives have long suggested a rethinking of our antitrust policies to move beyond what Senator Herb Kohl again referenced as the excesses of Chicago school of economic theory, and that we seek to incorporate noneconomic values that promote the public interest through enforcement policy.    In closing, I thank the Chair for holding today's hearing, and I hope to continue to look beyond our own antitrust enforcement practices in future hearings. I also thank our witnesses for their testimony. We truly have a wealth of expertise on the panel. I'm looking forward to hearing your views, particularly on the issue of whether or not there should be just one regime and it be our regime for antitrust enforcement. And when I say ``ours,'' I mean the American formula. And with that, I will yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    The Judiciary Committee routinely exercises its oversight authority to ensure that our Nation's antitrust laws are applied in a manner that is transparent, fair, predictable, and reasonably stable over time. A natural extension of this oversight is ensuring that our Nation's companies and citizens receive comparable treatment in foreign jurisdictions.    As commerce becomes an increasingly global enterprise, the manner in which antitrust and competition laws are applied to companies and citizens located or engaged in business outside of the United States also grows in importance. In particular, China has risen in prominence as an economic marketplace as well as a competition law jurisdiction.    Over the past several years, reports have surfaced that allege China is deploying its competition laws in a manner that strains the boundaries of due process, that focuses on advancing domestic industrial policies, and that seeks to extract valuable American innovations without fair compensation.    I would like to thank Chairman Issa for holding today's hearing to delve into these potentially serious abuses. Today's testimony will help the Committee gain a better understanding of the history of China's competition laws, how they have been enforced, and the potential impact of this enforcement on other international competition jurisdictions. Furthermore, it will provide a record regarding how our executive agencies, including our antitrust enforcement agencies, have been coordinating among each other and engaging with China and other foreign countries on international competition law enforcement.    This hearing also serves as a reminder that the United States should be a leader in fair and reasonable antitrust enforcement. To that end, enacting important antitrust reforms such as the SMARTER Act, will help to ensure that the U.S. continues to be an example to international competition law authorities.    I look forward to hearing from today's excellent panel of expert witnesses on these important issues, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. I thank the gentleman for his opening statement and his comments.    If Mr. Conyers arrives, we'll take his opening statement in due course. But it's now my pleasure to introduce the distinguished panel here today. The witnesses' written statements will be entered into the record in their entirety, and I would ask each of the witnesses to summarize their testimony within 5 minutes.    Since virtually all of you are pros, I'll summarize by saying, the red lights work just like they do on city streets. Please look at them for the same indications of go, go faster, and stop. To help you stay within that time period, please observe them.    It's now my honor to introduce our witnesses, but before I do that, in concert with the rules of the Committee, I would ask that all four of you please rise to take the oath. Please raise your right hands.    Do you solemnly swear that the testimony you're about to give will be the truth, the whole truth, and nothing but the truth?    Thank you. Please be seated. And let the record reflect that all witnesses answered in the affirmative.    It's now my pleasure to introduce Commissioner Ohlhausen.    Commissioner Ohlhausen was sworn in to her position as the Commissioner of the Federal Trade Commission on April 4th, 2012, to a term that expires September of 2018. Prior to becoming the Commissioner of the FTC, the Commissioner spent 11 years working for the Federal Trade Commission in various capacities, including Director of the Office of Policy and Planning and Attorney Adviser to the former FTC Commissioner Swindle.    She has spent a number of years in the private sector working on FTC issues and as a partner at the law firm of Wilkinson Barker and Knauer, LLP. The Commissioner earned her bachelor's degree in English with honors from the University of Virginia and her J.D. from George Mason, newly named Antonin Scalia Law School. I see somebody picked that up right away.    Our next witness, Mark Cohen, is a Senior Counsel at the United States Patent and Trademark Office where he leads a 21-person team focused specifically on the expertise of China. It's got to be a full-time job with just 21 of you.    Mr. Cohen has over 30 years of private and public sector in-house and academic experience in the China transition economies, serving in such roles as the director of IP for Microsoft Corporation and a counsel at the law firm of Jones Day, a Cleveland-based company of my youth, but worked in their Beijing office.    In addition to his position at the Patent and Trademark Office, Mr. Cohen lectures at universities in the United States and abroad, including Harvard, Fordham, and the China University of Political Science and Law. Mr. Cohen earned his bachelor's degree in Chinese studies from the State University of New York in Albany, his master's degree in Chinese language and literature from the University of Wisconsin, and his J.D. From Columbia. I'm impressed.    Next, we have Mr. Sean Heather. Sean Heather is the Vice President of the U.S. Chamber of Commerce Center for Global Regulatory Cooperation, which seeks to align trade, regulatory, and competition policy in support of open and competitive markets. During his 16-year career at the Chamber, Mr. Heather has worked in a wide range of issues spanning from international trade and antitrust to tax technology and corporate governance. Mr. Heather is also the co-author of the Chamber's comprehensive report on China's enforcement of its competition laws.    Mr. Heather received his bachelor's degree in business administration and an MBA both from the University of Illinois.    Last and definitely not least, we have Professor Thomas Horton, professor of law at the University of South Dakota School of Law. Professor Horton transitioned to a full-time academic position following a 28-year career as an antitrust lawyer where he served at both the Federal Trade Commission and the Antitrust Division of the Department of Justice, in addition to partnership at several major international law firms.    Professor Horton earned his bachelor's degree from Harvard, cum laude, his J.D. from Case Western Reserve University School of Law, right there on the near east side of Cleveland where he graduated with the Order of the Coif, and a master's degree with honors in Liberal Studies from Georgetown University.    Before I recognize the Commissioner, thank you Mr. Horton for going to Case. Everyone in my family either applied or went there. I went to Kent State. You can tell why.    Your Honor.</t>
   </si>
   <si>
-    <t>Ohlhausen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ohlhausen. Chairman Issa, Ranking Member Johnson, and Members of the Subcommittee, thank you for the opportunity to appear before you today.    International antitrust law has been very dynamic over the past two decades. The FTC engages in multilateral fora and bilateral consultations. It also offers technical assistance to build stronger relationships with foreign competition agencies and to encourage convergence on sound economic competition policy and enforcement. The global economy, competition, and consumers benefit when competition laws function coherently and effectively. Enforcement predictability also reduces the cost of doing business and improves outcomes for consumers.    While the FTC's focus has been global, the agency has devoted significant attention and resources to two areas that have received particular attention in recent years: China's antitrust enforcement and the application of antitrust intellectual property rights. I personally spend a lot of time on these issues. I have traveled to China seven times in recent years to engage in dialogue, both formal and informal, on antitrust policy and enforcement, including attending a conference on antitrust in Asia in Hong Kong just last week.    Even before the enactment of China's Anti-Monopoly Law, or the AML, in 2007, the FTC and the DOJ worked with Chinese officials to promote predictability, fairness, and efficiency in antitrust enforcement. We have also stressed the importance of economics to sound antitrust policy.    China's AML resembles the competition laws of the United States in many ways, including, for example, provisions on cartel conduct and anticompetitive mergers. The AML, however, also has important differences, including the prohibition of unfairly high pricing and consideration of noncompetition factors, such as the effect of a merger on economic development.    Our engagement with Chinese authorities on the development and implementation of the AML has produced some positive tangible results. A good example is China's adoption of a simplified merger review procedure last year, which saves time and reduces costs for merging companies. We have also observed that MOFCOM increasingly sets forth its economic analysis in published merger decisions.    Nonetheless, our efforts with the Chinese AML agencies are best seen as a work in progress as there is continued concern regarding the procedural and substantive application of the AML. Issues raised by Chinese procedures include the degree of transparency, the opportunity to present a defense, and the ability to be represented by counsel. Due process is a critical element to ensure fair, transparent, and nondiscriminatory application of antitrust laws. At the recent meeting in Hong Kong, I was particularly encouraged to see all three Chinese agencies acknowledge these procedural concerns.    On a substantive level, there continues to be a belief that Chinese agencies are pursuing noncompetition objectives to antitrust enforcement to promote domestic industries or Chinese competitors. We take such concerns seriously and have worked through multiple avenues, including our most recent vice minister level bilateral meeting in April to encourage China's agencies to ensure appropriate transparency and fairness.    So far, we have seen some promising responses, including through the Strategic and Economic Dialogues, as well as the U.S.-China Joint Commission on Commerce and Trade. In 2014, through these dialogues, China officially recognized that the objective of competition policy is to promote consumer welfare and economic efficiency rather than promote individual competitors or industries, and that enforcement of competition laws should be fair, objective, transparent, and nondiscriminatory. Through these dialogues, China also provided certain commitments regarding AML enforcement procedures. We will continue to engage with Chinese antitrust authorities on these issues.    International convergence on unilateral conduct remains a challenging area overall, particularly for conduct involving IP rights. Many of the concerns about IP-related enforcement have focused on China because its competition law prohibits unfairly high pricing as well as places limits on refusals to deal. The Chinese AML agencies' current draft IP guidelines reinforce this concern with provisions that would create liability for refusals to license intellectual property deemed necessary to compete in a given market, as well as provisions that would prohibit unfairly high IP royalties.    The FTC and the DOJ have voiced concerns over the potential danger of reducing incentives to innovation, not only in China but globally, and have thus urged caution in enforcing these provisions. The FTC will continue to advocate for policies and approaches that promote innovation and competition as these guidelines continue to develop.    Thank you for your time, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. It's now my pleasure to introduce the Ranking Member of the full Committee for his opening statement, Mr. Conyers of Michigan.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Issa, and I want to put my statement in the record.</t>
   </si>
   <si>
@@ -106,27 +91,18 @@
     <t xml:space="preserve">    Mr. Issa. I thank the gentleman, and hopefully we'll see the answer to that question as we speak.    With that, we go to Mr. Cohen for his opening statement.</t>
   </si>
   <si>
-    <t>Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Chairman Issa, Ranking Member Johnson, Members of the Committee, thank you for the opportunity to discuss competition law in China from the perspective of the U.S. Patent and Trademark Office. It's an honor to appear before you today.    USPTO is engaged with China on all IP issues, including those that involve antitrust and licensing. Last year, Under Secretary Lee met with Chinese Vice Premier Wang Yang, and just last week, I accompanied Deputy Under Secretary Slifer to Beijing to advance talks on critical IP issues. Along with the United States Trade Representative, Under Secretary Lee also cochairs the IP Working Group of the Joint Commission on Commerce and Trade, or JCCT, to engage bilaterally on improvements to China's IP regime.    Over the years, the JCCT and related dialogues have included several commitments on IP, including on standards, licensing, legitimate sales of IP-intensive goods, and judicial reform. The USPTO's China team consists of 21 people, including experienced IP attaches in three Chinese cities. We have signed agreements to support cooperative activities in IP with several Chinese agencies. We also frequently meet with industry to exchange views, educate them, and share their concerns.    In our experience, the current environment for IP and antitrust in China has three pronounced characteristics. These are: one, strong antitrust enforcement is counterposed against weak IP protection; two, there's little foreign use of the IP enforcement system while there is considerable foreign concern about being targeted for competition law violations; and, three, industrial policy in China makes it difficult to legitimately license technology to third parties.    Regarding the first item, China's weak enforcement system, Chinese IP damages are too low weakening fundamental protections IP right holders need. IP holders who run afoul of Chinese AML authorities often do not believe that their legitimate rights have been protected. In summary, China is pursuing IP abuse without first having adequately secured IP use.    As an example of this unbalanced environment, the antitrust fine imposed against Qualcomm for 975 million U.S. Dollars is thousands of times more than the average damages in a patent litigation in China. Second, surveys and press reports suggest that many foreign companies feel targeted. While Chinese antitrust authorities have taken pains to show that they are enforcing their laws evenhandedly, this sense of feeling targeted is coupled with little affirmative use of China's IP system as well as concerns over due process and a sense that foreigners' rights are not being adequately protected.    As for the third item, industrial policy, I share the concerns of many here. Much of the problem with commercialization of technology today in China is due to an overinterventionist Chinese economy. Notwithstanding the international consensus that IP is a ``private right,'' China's state planners have created a wealth of interventions in IP creation and licensing from which it is reasonable to assume antitrust policy is not excluded.    These three serious problems highlight the challenges our companies face: Weak IP protection, targeting, and industrial policy. The Administration has pushed back on the more onerous aspects of these policies. USPTO is also taking the lead on highlighting challenges involved in licensing IP to China, including negotiating with our Chinese counterparts, training programs, and research.    In summary, the Administration strongly supports China's efforts to develop an antitrust regime consistent with the practices of other market economy countries. However, there are many aspects of China's economy that may not be fully market driven in the context of both IP and IP-related antitrust.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Mr. Heather.</t>
   </si>
   <si>
-    <t>Heather</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heather. Thank you, Chairman Issa and Ranking Member Johnson, for today's important hearing and inviting the Chamber to testify.    The Chamber's approach to antitrust is grounded in the belief that antitrust should be transparent, fair, predictable, reasonably stable over time, consistent across jurisdictions, and based on sound economic analysis.    For the past several years, the Chamber has worked with China on its Anti-Monopoly Law, and China has made some positive progress. In part, improvements can be traced to high level engagement between the two governments. The Chamber welcomed the commitment by the two Presidents during President Xi's State visit in 2015 where it was agreed, quote, ``Both countries affirm the importance of competition policy approaches that ensure fair and nondiscriminatory treatment of entities and that avoid the enforcement of competition law to pursue industrial policy goals.'' However, China's antitrust enforcement has yet to live up to this ideal.    The AML itself allows China's agencies wide latitude to inject industrial policy into their enforcement activity. Further, stakeholders in China's government, not directly charged with enforcing the AML, have the potential to weigh in and steer the outcome of an antitrust investigation. As a result, in many cases, foreign companies find themselves as a victim of industrial policy goals that promote also discrimination and protectionism. Merger reviews have created opportunities for China's own national champions to expand and increase their market share, have capped prices for products and technology on which domestic companies rely, and protect famous Chinese brands from acquisition by foreign companies.    To date, all merger transactions blocked or conditionally approved have involved foreign companies. Similarly, AML transactions--AML investigations have forced foreign companies that market consumer products to reduce prices, even when such prices appear to be the result of market forces rather than anticompetitive conduct.    The Chamber is particularly concerned with China's ongoing efforts to develop IP abuse guidelines under the AML. Those guidelines endorse a broad, unbalanced essential facilities doctrine, impose stiff Anti-Monopoly sanctions for refusing to license IP or charging, quote, ``excessively highly'' royalties.    As drafted, the guidelines would force companies that possess critical technologies to license their intellectual property to Chinese competitors or to lower licensing costs to benefit local firms. As China concludes its drafting process later this year, the American business community hopes that China will remove its unbalanced essential facilities doctrine, delete provisions on excessive pricing, and eliminate provisions that prohibit or restrict the refusal to license. We believe such a course correction is ultimately in China's long-term interest as it seeks to move up the value chain and become a global innovative contributor.    Let me mention a word or two about due process. Concerns regarding the substance of China's AML and its enforcement are compounded by continuing concerns over transparency and due process. Limited evidence is often presented to the target in support of vague or novel theories of harm. The absence of an independent judiciary, as well as potential threats of retaliation, deters companies from seriously considering an appeal. The result, more often than not, is an investigative process that incentivizes the foreign target of investigation to settle on terms favorable to the Chinese government.    Looking beyond China, the Chamber actively follows upwards of a dozen jurisdictions annually. Many of the concerns we discuss here today exist elsewhere in the world to varying degrees. Today, it can be difficult to discern what is an appropriate international antitrust norm. Take a statement from the Korea Fair Trade Commission regarding its 2015 enforcement plan. It stated that one of its primary goals was to strengthen enforcement against global monopolistic enterprises holding original technologies having a significant influence in the Korean industry.    The wording of such a statement demonstrates how perverse uses of antitrust can creep toward becoming an acceptable international norm. Last year, China issued a fine to Qualcomm for just under a billion dollars. That amount may seem like a lot, but it is actually the third highest fine behind the questionable fines issued by Europe against Intel and Microsoft. China also raised eyebrows over the condition it imposed on the Microsoft-Nokia merger, only for Korea to follow and place significantly more questionable conditions on that same merger.    In these examples, China's actions can be seen to further stretch international norms while also claiming to live within them. It also demonstrates that the world of international trust presents problems beyond China.    In closing, the Chamber greatly appreciates the work of the U.S. antitrust agencies and this Administration, yet more work needs to be done. Let me conclude by highlighting some of the recommendations from my written testimony for Congress and this Committee to consider.    First, it is important to endorse a whole-of-government approach wherever antitrust is misused and abused. It is critical that competition policy advocacy, vis--vis, China occur within the framework of the Administration's broader economic and commercial policy toward China as set forth by the President of the United States.    Second, Congress, through rigorous oversight support, should support the Administration to do everything in its power to ensure provisions of China's IP abuse guidelines are at least as consistent with U.S., EU, and Japanese approaches. This must be a top and urgent priority.    Finally, Congress should be more vocal in its support for addressing these concerns through bilateral investment treaty negotiations with China and through competition chapters in our trade agreements.    Thank you, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Professor Horton.</t>
   </si>
   <si>
-    <t>Horton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Horton. Chairman Issa, Ranking Member----</t>
   </si>
   <si>
@@ -154,9 +130,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I want to take just a moment to sort of broaden out the picture just a little bit, and I think it's what we're looking at and this is sort of an open question to all.    I think we all can understand that China, and with even the last comments Mr. Horton said, is very protectionist, very looking after theirself, but yet at the same time wanting to aggressively market everywhere else in the world. Okay. We can understand that even from a capitalist standpoint in looking at that.    The problem I'm looking at is, especially in this area of IP, I mean, this is a country that have its own, quote, State-owned business moving factories out of Mainland China to other areas in the Middle East to keep their own theft from occurring. So I think we've got an issue here, but I have just a general question, and it was mentioned in a couple of your comments.    In the area of trade, in the area of working with the world, with the negotiations of the TPP and with the past few years of the AML, what do we see in China in regard--have you seen an uptick in the protectionism--I know I have seen in some areas--in maybe a response to the other countries and the TPP? I'd like to get your--just a perspective, maybe an overall perspective on that. And anybody wants to start. Ms. Secretary or whoever wants to start.    Mr. Cohen.</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair, and I thank the panel for your insight today. I wanted to give you a chance to review some of the recent reports highlighting the problem of Chinese companies using stolen images and deceptive advertising to lure American consumers into buying poor quality apparel direct from the Chinese manufacturers.    And that said, Mr. Chair, I'd like to ask unanimous consent to be able to submit this document which depicts blatant pictorial examples of Chinese advertising----</t>
   </si>
   <si>
@@ -293,9 +263,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Chairman. I appreciate all the witnesses and your testimony today. I think this topic is especially timely, given the U.S.-China Strategic and Economic Dialogue that's taking place this week.    The trends that we've seen with respect to China enforcing its antitrust laws to advance its own industrial policies are troubling, to say the least. In fact, it's difficult to imagine China having a truly objective antitrust law when the very text of that law states that its purpose is to promote a socialist market economy.    But even more telling, I think, are the anecdotes that we see from American and European companies, which in some cases are, frankly, shocking. We've seen reports of intimidation tactics, bullying companies into accepting punishments without full hearings, and even in some cases, companies being told not to challenge their investigations or even bring their lawyers to some of the hearings.    You know, beyond the direct impact of China's behavior on American companies, I'm a little bit concerned that other rising economies out there will see China's behavior and perhaps follow suit. So the bottom line is, I think, that if China wants to be taken serious as a leading economy, then these issues need to be addressed or remediated.    Mr. Heather, I want to start with you. I appreciate you being here to testify today. I know this can be a sensitive issue within the U.S. business community and I know some folks may actually fear retaliation for speaking up and voicing their experiences. So I appreciate you being here to speak on behalf of U.S. companies.    Let me start with what I mentioned before, the U.S.-China Strategic and Economic Dialogue. What meetings and conversations do you hope that our Administration is initiating in that regard?</t>
@@ -880,11 +847,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -904,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -932,11 +895,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -956,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -984,11 +943,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1008,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1036,11 +991,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1060,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1088,11 +1039,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1112,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1140,11 +1087,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1164,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1192,11 +1135,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1216,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1244,11 +1183,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1268,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1296,11 +1231,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1320,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1348,11 +1279,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1372,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1400,11 +1327,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1424,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1452,11 +1375,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1476,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1502,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1528,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1554,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1580,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1606,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1632,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1658,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1684,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1710,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1736,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1762,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1788,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1814,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1840,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1868,11 +1759,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1892,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1918,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1944,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1970,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1996,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2022,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2048,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2074,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2100,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2126,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2152,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2178,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2204,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2230,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2256,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2282,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2308,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2336,11 +2191,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2360,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2388,11 +2239,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2412,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2440,11 +2287,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2464,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2492,11 +2335,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2516,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2542,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2568,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2594,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2622,11 +2455,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2646,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2672,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2698,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2724,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2750,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2776,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2802,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2830,11 +2647,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2854,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2882,11 +2695,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2906,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2934,11 +2743,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2958,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2986,11 +2791,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3010,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3038,11 +2839,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3062,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3090,11 +2887,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3114,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3142,11 +2935,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3166,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3194,11 +2983,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3218,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3246,11 +3031,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3270,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3298,11 +3079,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3322,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3350,11 +3127,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3374,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3402,11 +3175,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3426,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3454,11 +3223,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3478,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3506,11 +3271,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3530,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3558,11 +3319,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3582,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3610,11 +3367,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3634,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3660,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3686,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3712,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3738,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3764,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3790,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3818,11 +3559,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3842,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3870,11 +3607,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3894,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3922,11 +3655,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3946,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3974,11 +3703,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3998,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4026,11 +3751,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4050,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4078,11 +3799,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4102,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4130,11 +3847,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4154,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4182,11 +3895,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4206,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4234,11 +3943,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20350.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20350.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will please come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome here everyone, and particularly our witnesses supporting International Antitrust Enforcement: China and Beyond, and I now recognize myself for an opening statement.    We convene today's hearing to examine the enforcement of competition laws across the globe but with a focus on how China is enforcing its laws. This focus is a result of troubling reports that China may be using its competition laws or, if you will, its antitrust laws, to advance industrial policy at the expense of America and other foreign companies. We will also examine how the executive branch has responded to China's administration and its competitive laws.    Over the past 30 years, China's economy has experienced remarkable growth, increasing at a rate of nearly 10 percent per year. During that time, China has become an important trade partner to the United States and a significant influence in the American economy. Between 1990 and 2015, total trade with China rose from $20 billion to $598 billion and, just last year, China passed Canada as the United States' largest trading partner.    China is the second largest U.S. agricultural export market, the third largest U.S. merchandise export market, and the fourth largest U.S. service export market. In total, China is estimated to be a $400 billion market to American companies.    While these statistics provide stark numbers, one need only look no further than the labels on phones, toys, cars, clothes, and a wide array of other consumer products to see a familiar marking ``made in China'' to understand the pervasive impact of China's economy in the United States. As China's economy developed, so did its laws and regulations designed to foster future growth. In 2007, China enacted its competition laws called the ``Anti-Monopoly Law,'' or ``AML.''    Since the AML's enactment, there have been troubling reports of China deploying the law in a manner that violates international norms of due process with the result of prioritizing the advancement of China's industry policies over promoting competition. These reports include allegations that China prevented foreign lawyers from representing their clients before competition authorities, threatened foreign executives during the course of competition investigations, targeted foreign companies more frequently than Chinese companies with respect to merger remedies, and conduct investigations pursued the extraction of intellectual property at below market rates, and sought remedies that directly benefited the Chinese industry.    Given the size of the Chinese economy and the importance to American industry, these are serious allegations. Following these reports, the executive branch has responded in a variety of ways. Notably, the Commerce Department has engaged with China through the U.S.-China Joint Commission on Commerce and Trade and the Departments of State and Treasury similarly engaged in the U.S.-China Strategic/Economic Dialogue, which is taking place this week in Beijing.    Past meetings with U.S. officials have resulted in non-binding voluntary commitments by China to improve transparency, increase due process, and enhance the fairness of the AML.    We should ensure that U.S. companies are treated fairly, consistently, and objectively by international jurisdiction. Today's hearing will help inform the Committee regarding international competition law enforcement, particularly China, and whether other countries are influenced by China's use of the AML.    Additionally, the hearing will update us regarding how the executive agencies are coordinating with each other and engaging with China and other countries on the treatment of U.S. companies and citizens abroad. On a personal note, I was an electronics executive during the era in which many, many American companies found themselves moving abroad, often to Taiwan, the new territories, and then into Mainland China. During that era, this was not the law, and yet there was inherently a desire to build a future China. And to this, on a personal note, I want to build a better China, and commerce is the answer, but it's only the answer if in fact they embrace the international norms that allow them to win when they're competitive and choose other vendors when in fact the most competitive vendor comes from somewhere other than China.    I look forward to today's discussion and our excellent panel, and it's my honor to recognize the Ranking Member, Mr. Johnson of Georgia, for his opening remarks.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. I thank the Chairman.    Today's hearing is a welcome discussion of international antitrust enforcement with a specific focus on China's approach to competition policy under its Anti-Monopoly Law. Over the past several decades, one of the most profound developments in antitrust law has been its expansion into the global economy.    In the 1980's, as few as five countries robustly enforce the antitrust laws. Today, more than 100 jurisdictions are members of the International Competition Network, an organization of enforcement agencies. This growing interest in antitrust law reflects a broader trend that reflects Nations moving away from centrally planned economies to open markets.    In recent years, there has also been some divergence from the U.S. approach to antitrust enforcement among Nations with established competition authorities. This change is particularly evident in China's aggressive enforcement of its Anti-Monopoly Law, which includes both procompetition goals such as preventing monopolization, and noncompetition directives such as improving economic efficiencies and development in China.    Some have suggested that these twin goals have at times served to protect domestic commerce rather than promote competition. Examining these differences is important because local enforcement decisions can have global effects, as Federal Trade Commission Chairwoman Edith Ramirez has observed. But diversity and enforcement policy is itself--in itself is not necessarily bad.    Progressives have long suggested that we rethink our antitrust policies to move beyond the excesses of the Chicago school of economic theory, as our former colleague Senator Herb Kohl has referred to it, to incorporate noneconomic values that promote the public interest through enforcement policy.    With this in mind, I commend our enforcement agencies for taking a long view in competition policy that embraces diverse antitrust frameworks and respects local autonomy, while also seeking to establish a fair, independent, and transparent enforcement process internationally. While most work remains to be done to broaden international consensus and ensure that enforcement policy is not just a tool for promoting domestic or industrial policy goals, I'm confident that we can continue to work productively to bridge our differences and complement divergent enforcement regimes.    As we seek consensus, it is imperative that we avoid an exceptional view of our own enforcement practices if we are to build upon ongoing dialogues with other sovereign Nations to establish economic and political comity. Indeed, progressives have long suggested a rethinking of our antitrust policies to move beyond what Senator Herb Kohl again referenced as the excesses of Chicago school of economic theory, and that we seek to incorporate noneconomic values that promote the public interest through enforcement policy.    In closing, I thank the Chair for holding today's hearing, and I hope to continue to look beyond our own antitrust enforcement practices in future hearings. I also thank our witnesses for their testimony. We truly have a wealth of expertise on the panel. I'm looking forward to hearing your views, particularly on the issue of whether or not there should be just one regime and it be our regime for antitrust enforcement. And when I say ``ours,'' I mean the American formula. And with that, I will yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    The Judiciary Committee routinely exercises its oversight authority to ensure that our Nation's antitrust laws are applied in a manner that is transparent, fair, predictable, and reasonably stable over time. A natural extension of this oversight is ensuring that our Nation's companies and citizens receive comparable treatment in foreign jurisdictions.    As commerce becomes an increasingly global enterprise, the manner in which antitrust and competition laws are applied to companies and citizens located or engaged in business outside of the United States also grows in importance. In particular, China has risen in prominence as an economic marketplace as well as a competition law jurisdiction.    Over the past several years, reports have surfaced that allege China is deploying its competition laws in a manner that strains the boundaries of due process, that focuses on advancing domestic industrial policies, and that seeks to extract valuable American innovations without fair compensation.    I would like to thank Chairman Issa for holding today's hearing to delve into these potentially serious abuses. Today's testimony will help the Committee gain a better understanding of the history of China's competition laws, how they have been enforced, and the potential impact of this enforcement on other international competition jurisdictions. Furthermore, it will provide a record regarding how our executive agencies, including our antitrust enforcement agencies, have been coordinating among each other and engaging with China and other foreign countries on international competition law enforcement.    This hearing also serves as a reminder that the United States should be a leader in fair and reasonable antitrust enforcement. To that end, enacting important antitrust reforms such as the SMARTER Act, will help to ensure that the U.S. continues to be an example to international competition law authorities.    I look forward to hearing from today's excellent panel of expert witnesses on these important issues, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. I thank the gentleman for his opening statement and his comments.    If Mr. Conyers arrives, we'll take his opening statement in due course. But it's now my pleasure to introduce the distinguished panel here today. The witnesses' written statements will be entered into the record in their entirety, and I would ask each of the witnesses to summarize their testimony within 5 minutes.    Since virtually all of you are pros, I'll summarize by saying, the red lights work just like they do on city streets. Please look at them for the same indications of go, go faster, and stop. To help you stay within that time period, please observe them.    It's now my honor to introduce our witnesses, but before I do that, in concert with the rules of the Committee, I would ask that all four of you please rise to take the oath. Please raise your right hands.    Do you solemnly swear that the testimony you're about to give will be the truth, the whole truth, and nothing but the truth?    Thank you. Please be seated. And let the record reflect that all witnesses answered in the affirmative.    It's now my pleasure to introduce Commissioner Ohlhausen.    Commissioner Ohlhausen was sworn in to her position as the Commissioner of the Federal Trade Commission on April 4th, 2012, to a term that expires September of 2018. Prior to becoming the Commissioner of the FTC, the Commissioner spent 11 years working for the Federal Trade Commission in various capacities, including Director of the Office of Policy and Planning and Attorney Adviser to the former FTC Commissioner Swindle.    She has spent a number of years in the private sector working on FTC issues and as a partner at the law firm of Wilkinson Barker and Knauer, LLP. The Commissioner earned her bachelor's degree in English with honors from the University of Virginia and her J.D. from George Mason, newly named Antonin Scalia Law School. I see somebody picked that up right away.    Our next witness, Mark Cohen, is a Senior Counsel at the United States Patent and Trademark Office where he leads a 21-person team focused specifically on the expertise of China. It's got to be a full-time job with just 21 of you.    Mr. Cohen has over 30 years of private and public sector in-house and academic experience in the China transition economies, serving in such roles as the director of IP for Microsoft Corporation and a counsel at the law firm of Jones Day, a Cleveland-based company of my youth, but worked in their Beijing office.    In addition to his position at the Patent and Trademark Office, Mr. Cohen lectures at universities in the United States and abroad, including Harvard, Fordham, and the China University of Political Science and Law. Mr. Cohen earned his bachelor's degree in Chinese studies from the State University of New York in Albany, his master's degree in Chinese language and literature from the University of Wisconsin, and his J.D. From Columbia. I'm impressed.    Next, we have Mr. Sean Heather. Sean Heather is the Vice President of the U.S. Chamber of Commerce Center for Global Regulatory Cooperation, which seeks to align trade, regulatory, and competition policy in support of open and competitive markets. During his 16-year career at the Chamber, Mr. Heather has worked in a wide range of issues spanning from international trade and antitrust to tax technology and corporate governance. Mr. Heather is also the co-author of the Chamber's comprehensive report on China's enforcement of its competition laws.    Mr. Heather received his bachelor's degree in business administration and an MBA both from the University of Illinois.    Last and definitely not least, we have Professor Thomas Horton, professor of law at the University of South Dakota School of Law. Professor Horton transitioned to a full-time academic position following a 28-year career as an antitrust lawyer where he served at both the Federal Trade Commission and the Antitrust Division of the Department of Justice, in addition to partnership at several major international law firms.    Professor Horton earned his bachelor's degree from Harvard, cum laude, his J.D. from Case Western Reserve University School of Law, right there on the near east side of Cleveland where he graduated with the Order of the Coif, and a master's degree with honors in Liberal Studies from Georgetown University.    Before I recognize the Commissioner, thank you Mr. Horton for going to Case. Everyone in my family either applied or went there. I went to Kent State. You can tell why.    Your Honor.</t>
   </si>
   <si>
+    <t>Ohlhausen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ohlhausen. Chairman Issa, Ranking Member Johnson, and Members of the Subcommittee, thank you for the opportunity to appear before you today.    International antitrust law has been very dynamic over the past two decades. The FTC engages in multilateral fora and bilateral consultations. It also offers technical assistance to build stronger relationships with foreign competition agencies and to encourage convergence on sound economic competition policy and enforcement. The global economy, competition, and consumers benefit when competition laws function coherently and effectively. Enforcement predictability also reduces the cost of doing business and improves outcomes for consumers.    While the FTC's focus has been global, the agency has devoted significant attention and resources to two areas that have received particular attention in recent years: China's antitrust enforcement and the application of antitrust intellectual property rights. I personally spend a lot of time on these issues. I have traveled to China seven times in recent years to engage in dialogue, both formal and informal, on antitrust policy and enforcement, including attending a conference on antitrust in Asia in Hong Kong just last week.    Even before the enactment of China's Anti-Monopoly Law, or the AML, in 2007, the FTC and the DOJ worked with Chinese officials to promote predictability, fairness, and efficiency in antitrust enforcement. We have also stressed the importance of economics to sound antitrust policy.    China's AML resembles the competition laws of the United States in many ways, including, for example, provisions on cartel conduct and anticompetitive mergers. The AML, however, also has important differences, including the prohibition of unfairly high pricing and consideration of noncompetition factors, such as the effect of a merger on economic development.    Our engagement with Chinese authorities on the development and implementation of the AML has produced some positive tangible results. A good example is China's adoption of a simplified merger review procedure last year, which saves time and reduces costs for merging companies. We have also observed that MOFCOM increasingly sets forth its economic analysis in published merger decisions.    Nonetheless, our efforts with the Chinese AML agencies are best seen as a work in progress as there is continued concern regarding the procedural and substantive application of the AML. Issues raised by Chinese procedures include the degree of transparency, the opportunity to present a defense, and the ability to be represented by counsel. Due process is a critical element to ensure fair, transparent, and nondiscriminatory application of antitrust laws. At the recent meeting in Hong Kong, I was particularly encouraged to see all three Chinese agencies acknowledge these procedural concerns.    On a substantive level, there continues to be a belief that Chinese agencies are pursuing noncompetition objectives to antitrust enforcement to promote domestic industries or Chinese competitors. We take such concerns seriously and have worked through multiple avenues, including our most recent vice minister level bilateral meeting in April to encourage China's agencies to ensure appropriate transparency and fairness.    So far, we have seen some promising responses, including through the Strategic and Economic Dialogues, as well as the U.S.-China Joint Commission on Commerce and Trade. In 2014, through these dialogues, China officially recognized that the objective of competition policy is to promote consumer welfare and economic efficiency rather than promote individual competitors or industries, and that enforcement of competition laws should be fair, objective, transparent, and nondiscriminatory. Through these dialogues, China also provided certain commitments regarding AML enforcement procedures. We will continue to engage with Chinese antitrust authorities on these issues.    International convergence on unilateral conduct remains a challenging area overall, particularly for conduct involving IP rights. Many of the concerns about IP-related enforcement have focused on China because its competition law prohibits unfairly high pricing as well as places limits on refusals to deal. The Chinese AML agencies' current draft IP guidelines reinforce this concern with provisions that would create liability for refusals to license intellectual property deemed necessary to compete in a given market, as well as provisions that would prohibit unfairly high IP royalties.    The FTC and the DOJ have voiced concerns over the potential danger of reducing incentives to innovation, not only in China but globally, and have thus urged caution in enforcing these provisions. The FTC will continue to advocate for policies and approaches that promote innovation and competition as these guidelines continue to develop.    Thank you for your time, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. It's now my pleasure to introduce the Ranking Member of the full Committee for his opening statement, Mr. Conyers of Michigan.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Issa, and I want to put my statement in the record.</t>
   </si>
   <si>
@@ -91,18 +115,27 @@
     <t xml:space="preserve">    Mr. Issa. I thank the gentleman, and hopefully we'll see the answer to that question as we speak.    With that, we go to Mr. Cohen for his opening statement.</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Chairman Issa, Ranking Member Johnson, Members of the Committee, thank you for the opportunity to discuss competition law in China from the perspective of the U.S. Patent and Trademark Office. It's an honor to appear before you today.    USPTO is engaged with China on all IP issues, including those that involve antitrust and licensing. Last year, Under Secretary Lee met with Chinese Vice Premier Wang Yang, and just last week, I accompanied Deputy Under Secretary Slifer to Beijing to advance talks on critical IP issues. Along with the United States Trade Representative, Under Secretary Lee also cochairs the IP Working Group of the Joint Commission on Commerce and Trade, or JCCT, to engage bilaterally on improvements to China's IP regime.    Over the years, the JCCT and related dialogues have included several commitments on IP, including on standards, licensing, legitimate sales of IP-intensive goods, and judicial reform. The USPTO's China team consists of 21 people, including experienced IP attaches in three Chinese cities. We have signed agreements to support cooperative activities in IP with several Chinese agencies. We also frequently meet with industry to exchange views, educate them, and share their concerns.    In our experience, the current environment for IP and antitrust in China has three pronounced characteristics. These are: one, strong antitrust enforcement is counterposed against weak IP protection; two, there's little foreign use of the IP enforcement system while there is considerable foreign concern about being targeted for competition law violations; and, three, industrial policy in China makes it difficult to legitimately license technology to third parties.    Regarding the first item, China's weak enforcement system, Chinese IP damages are too low weakening fundamental protections IP right holders need. IP holders who run afoul of Chinese AML authorities often do not believe that their legitimate rights have been protected. In summary, China is pursuing IP abuse without first having adequately secured IP use.    As an example of this unbalanced environment, the antitrust fine imposed against Qualcomm for 975 million U.S. Dollars is thousands of times more than the average damages in a patent litigation in China. Second, surveys and press reports suggest that many foreign companies feel targeted. While Chinese antitrust authorities have taken pains to show that they are enforcing their laws evenhandedly, this sense of feeling targeted is coupled with little affirmative use of China's IP system as well as concerns over due process and a sense that foreigners' rights are not being adequately protected.    As for the third item, industrial policy, I share the concerns of many here. Much of the problem with commercialization of technology today in China is due to an overinterventionist Chinese economy. Notwithstanding the international consensus that IP is a ``private right,'' China's state planners have created a wealth of interventions in IP creation and licensing from which it is reasonable to assume antitrust policy is not excluded.    These three serious problems highlight the challenges our companies face: Weak IP protection, targeting, and industrial policy. The Administration has pushed back on the more onerous aspects of these policies. USPTO is also taking the lead on highlighting challenges involved in licensing IP to China, including negotiating with our Chinese counterparts, training programs, and research.    In summary, the Administration strongly supports China's efforts to develop an antitrust regime consistent with the practices of other market economy countries. However, there are many aspects of China's economy that may not be fully market driven in the context of both IP and IP-related antitrust.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Mr. Heather.</t>
   </si>
   <si>
+    <t>Heather</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heather. Thank you, Chairman Issa and Ranking Member Johnson, for today's important hearing and inviting the Chamber to testify.    The Chamber's approach to antitrust is grounded in the belief that antitrust should be transparent, fair, predictable, reasonably stable over time, consistent across jurisdictions, and based on sound economic analysis.    For the past several years, the Chamber has worked with China on its Anti-Monopoly Law, and China has made some positive progress. In part, improvements can be traced to high level engagement between the two governments. The Chamber welcomed the commitment by the two Presidents during President Xi's State visit in 2015 where it was agreed, quote, ``Both countries affirm the importance of competition policy approaches that ensure fair and nondiscriminatory treatment of entities and that avoid the enforcement of competition law to pursue industrial policy goals.'' However, China's antitrust enforcement has yet to live up to this ideal.    The AML itself allows China's agencies wide latitude to inject industrial policy into their enforcement activity. Further, stakeholders in China's government, not directly charged with enforcing the AML, have the potential to weigh in and steer the outcome of an antitrust investigation. As a result, in many cases, foreign companies find themselves as a victim of industrial policy goals that promote also discrimination and protectionism. Merger reviews have created opportunities for China's own national champions to expand and increase their market share, have capped prices for products and technology on which domestic companies rely, and protect famous Chinese brands from acquisition by foreign companies.    To date, all merger transactions blocked or conditionally approved have involved foreign companies. Similarly, AML transactions--AML investigations have forced foreign companies that market consumer products to reduce prices, even when such prices appear to be the result of market forces rather than anticompetitive conduct.    The Chamber is particularly concerned with China's ongoing efforts to develop IP abuse guidelines under the AML. Those guidelines endorse a broad, unbalanced essential facilities doctrine, impose stiff Anti-Monopoly sanctions for refusing to license IP or charging, quote, ``excessively highly'' royalties.    As drafted, the guidelines would force companies that possess critical technologies to license their intellectual property to Chinese competitors or to lower licensing costs to benefit local firms. As China concludes its drafting process later this year, the American business community hopes that China will remove its unbalanced essential facilities doctrine, delete provisions on excessive pricing, and eliminate provisions that prohibit or restrict the refusal to license. We believe such a course correction is ultimately in China's long-term interest as it seeks to move up the value chain and become a global innovative contributor.    Let me mention a word or two about due process. Concerns regarding the substance of China's AML and its enforcement are compounded by continuing concerns over transparency and due process. Limited evidence is often presented to the target in support of vague or novel theories of harm. The absence of an independent judiciary, as well as potential threats of retaliation, deters companies from seriously considering an appeal. The result, more often than not, is an investigative process that incentivizes the foreign target of investigation to settle on terms favorable to the Chinese government.    Looking beyond China, the Chamber actively follows upwards of a dozen jurisdictions annually. Many of the concerns we discuss here today exist elsewhere in the world to varying degrees. Today, it can be difficult to discern what is an appropriate international antitrust norm. Take a statement from the Korea Fair Trade Commission regarding its 2015 enforcement plan. It stated that one of its primary goals was to strengthen enforcement against global monopolistic enterprises holding original technologies having a significant influence in the Korean industry.    The wording of such a statement demonstrates how perverse uses of antitrust can creep toward becoming an acceptable international norm. Last year, China issued a fine to Qualcomm for just under a billion dollars. That amount may seem like a lot, but it is actually the third highest fine behind the questionable fines issued by Europe against Intel and Microsoft. China also raised eyebrows over the condition it imposed on the Microsoft-Nokia merger, only for Korea to follow and place significantly more questionable conditions on that same merger.    In these examples, China's actions can be seen to further stretch international norms while also claiming to live within them. It also demonstrates that the world of international trust presents problems beyond China.    In closing, the Chamber greatly appreciates the work of the U.S. antitrust agencies and this Administration, yet more work needs to be done. Let me conclude by highlighting some of the recommendations from my written testimony for Congress and this Committee to consider.    First, it is important to endorse a whole-of-government approach wherever antitrust is misused and abused. It is critical that competition policy advocacy, vis--vis, China occur within the framework of the Administration's broader economic and commercial policy toward China as set forth by the President of the United States.    Second, Congress, through rigorous oversight support, should support the Administration to do everything in its power to ensure provisions of China's IP abuse guidelines are at least as consistent with U.S., EU, and Japanese approaches. This must be a top and urgent priority.    Finally, Congress should be more vocal in its support for addressing these concerns through bilateral investment treaty negotiations with China and through competition chapters in our trade agreements.    Thank you, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Professor Horton.</t>
   </si>
   <si>
+    <t>Horton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Horton. Chairman Issa, Ranking Member----</t>
   </si>
   <si>
@@ -130,6 +163,12 @@
     <t>412531</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I want to take just a moment to sort of broaden out the picture just a little bit, and I think it's what we're looking at and this is sort of an open question to all.    I think we all can understand that China, and with even the last comments Mr. Horton said, is very protectionist, very looking after theirself, but yet at the same time wanting to aggressively market everywhere else in the world. Okay. We can understand that even from a capitalist standpoint in looking at that.    The problem I'm looking at is, especially in this area of IP, I mean, this is a country that have its own, quote, State-owned business moving factories out of Mainland China to other areas in the Middle East to keep their own theft from occurring. So I think we've got an issue here, but I have just a general question, and it was mentioned in a couple of your comments.    In the area of trade, in the area of working with the world, with the negotiations of the TPP and with the past few years of the AML, what do we see in China in regard--have you seen an uptick in the protectionism--I know I have seen in some areas--in maybe a response to the other countries and the TPP? I'd like to get your--just a perspective, maybe an overall perspective on that. And anybody wants to start. Ms. Secretary or whoever wants to start.    Mr. Cohen.</t>
   </si>
   <si>
@@ -235,6 +274,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair, and I thank the panel for your insight today. I wanted to give you a chance to review some of the recent reports highlighting the problem of Chinese companies using stolen images and deceptive advertising to lure American consumers into buying poor quality apparel direct from the Chinese manufacturers.    And that said, Mr. Chair, I'd like to ask unanimous consent to be able to submit this document which depicts blatant pictorial examples of Chinese advertising----</t>
   </si>
   <si>
@@ -263,6 +308,12 @@
   </si>
   <si>
     <t>412653</t>
+  </si>
+  <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Chairman. I appreciate all the witnesses and your testimony today. I think this topic is especially timely, given the U.S.-China Strategic and Economic Dialogue that's taking place this week.    The trends that we've seen with respect to China enforcing its antitrust laws to advance its own industrial policies are troubling, to say the least. In fact, it's difficult to imagine China having a truly objective antitrust law when the very text of that law states that its purpose is to promote a socialist market economy.    But even more telling, I think, are the anecdotes that we see from American and European companies, which in some cases are, frankly, shocking. We've seen reports of intimidation tactics, bullying companies into accepting punishments without full hearings, and even in some cases, companies being told not to challenge their investigations or even bring their lawyers to some of the hearings.    You know, beyond the direct impact of China's behavior on American companies, I'm a little bit concerned that other rising economies out there will see China's behavior and perhaps follow suit. So the bottom line is, I think, that if China wants to be taken serious as a leading economy, then these issues need to be addressed or remediated.    Mr. Heather, I want to start with you. I appreciate you being here to testify today. I know this can be a sensitive issue within the U.S. business community and I know some folks may actually fear retaliation for speaking up and voicing their experiences. So I appreciate you being here to speak on behalf of U.S. companies.    Let me start with what I mentioned before, the U.S.-China Strategic and Economic Dialogue. What meetings and conversations do you hope that our Administration is initiating in that regard?</t>
@@ -797,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,7 +856,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,3125 +878,3666 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
       <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
       <c r="H33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
       <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
       <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
       <c r="H39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G70" t="s">
+        <v>98</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>39</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
       <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>33</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>33</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>39</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>144</v>
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20350.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20350.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Issa</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412199</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Johnson</t>
@@ -848,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +865,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,3663 +890,3944 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I72" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>33</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>36</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>36</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>36</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>39</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>42</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>39</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>42</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>39</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>42</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>33</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>36</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>33</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>36</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>33</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>36</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>33</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>36</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>33</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>36</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>36</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>33</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>36</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>39</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>42</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>161</v>
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
